--- a/tabelas novas/12. pointing_hours.xlsx
+++ b/tabelas novas/12. pointing_hours.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\tabelas novas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\project123\tabelas novas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Antigo</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>tipo_servico_id</t>
+  </si>
+  <si>
+    <t>date_begin</t>
+  </si>
+  <si>
+    <t>hour_begin</t>
+  </si>
+  <si>
+    <t>date_end</t>
+  </si>
+  <si>
+    <t>hour_end</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>service_type_id</t>
   </si>
 </sst>
 </file>
@@ -431,13 +449,13 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,41 +489,62 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
     </row>

--- a/tabelas novas/12. pointing_hours.xlsx
+++ b/tabelas novas/12. pointing_hours.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\project123\tabelas novas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="F46FEE594A61158DE280D5C165268EB42AC5BDA1" xr6:coauthVersionLast="10" xr6:coauthVersionMax="10" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Tabela Nome Antigo</t>
+  </si>
+  <si>
+    <t>Tabela Nome novo</t>
+  </si>
+  <si>
+    <t>pointing_hours</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
   <si>
     <t>Antigo</t>
   </si>
@@ -27,52 +40,43 @@
     <t>Novo</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Tabela Nome Antigo</t>
-  </si>
-  <si>
-    <t>Tabela Nome novo</t>
-  </si>
-  <si>
     <t>id_func</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>data_inicio</t>
   </si>
   <si>
+    <t>date_begin</t>
+  </si>
+  <si>
+    <t>hora_inicio</t>
+  </si>
+  <si>
+    <t>hour_begin</t>
+  </si>
+  <si>
     <t>data_fim</t>
   </si>
   <si>
-    <t>pointing_hours</t>
-  </si>
-  <si>
-    <t>hora_inicio</t>
+    <t>date_end</t>
   </si>
   <si>
     <t>hora_fim</t>
   </si>
   <si>
+    <t>hour_end</t>
+  </si>
+  <si>
     <t>comfirmacao</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>tipo_servico_id</t>
-  </si>
-  <si>
-    <t>date_begin</t>
-  </si>
-  <si>
-    <t>hour_begin</t>
-  </si>
-  <si>
-    <t>date_end</t>
-  </si>
-  <si>
-    <t>hour_end</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t>service_type_id</t>
@@ -81,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,176 +449,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3">
       <c r="C33" s="2"/>
     </row>
   </sheetData>

--- a/tabelas novas/12. pointing_hours.xlsx
+++ b/tabelas novas/12. pointing_hours.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\project123\tabelas novas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documentos\GitHub\project123\tabelas novas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="F46FEE594A61158DE280D5C165268EB42AC5BDA1" xr6:coauthVersionLast="10" xr6:coauthVersionMax="10" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Tabela Nome Antigo</t>
   </si>
@@ -49,27 +48,9 @@
     <t>data_inicio</t>
   </si>
   <si>
-    <t>date_begin</t>
-  </si>
-  <si>
-    <t>hora_inicio</t>
-  </si>
-  <si>
-    <t>hour_begin</t>
-  </si>
-  <si>
     <t>data_fim</t>
   </si>
   <si>
-    <t>date_end</t>
-  </si>
-  <si>
-    <t>hora_fim</t>
-  </si>
-  <si>
-    <t>hour_end</t>
-  </si>
-  <si>
     <t>comfirmacao</t>
   </si>
   <si>
@@ -80,13 +61,19 @@
   </si>
   <si>
     <t>service_type_id</t>
+  </si>
+  <si>
+    <t>date_hour_begin</t>
+  </si>
+  <si>
+    <t>date_hour_end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,20 +436,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -471,7 +458,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -480,7 +467,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -489,7 +476,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -498,127 +485,115 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
     </row>
   </sheetData>
